--- a/StructureDefinition-Bundle-adultcheck.xlsx
+++ b/StructureDefinition-Bundle-adultcheck.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://tsti.example.com/StructureDefinition/Bundle-adultcheck</t>
+    <t>https://fhirisolationroom.azurehealthcareapis.com/StructureDefinition/Bundle-adultcheck</t>
   </si>
   <si>
     <t>Version</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -1129,7 +1129,7 @@
     <t>Bundle.entry:composition.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Composition {http://tsti.example.com/StructureDefinition/Composition-adultcheck}
+    <t xml:space="preserve">Composition {https://fhirisolationroom.azurehealthcareapis.com/StructureDefinition/Composition-adultcheck}
 </t>
   </si>
   <si>
@@ -1573,7 +1573,7 @@
     <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.90625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="100.41015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
